--- a/data/trans_orig/P14B34-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B34-Provincia-trans_orig.xlsx
@@ -1421,19 +1421,19 @@
         <v>4007</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9170</v>
+        <v>9178</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01359486802969995</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003417400181611667</v>
+        <v>0.003411873473308398</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03111171315995023</v>
+        <v>0.03113941161158022</v>
       </c>
     </row>
     <row r="5">
@@ -1450,19 +1450,19 @@
         <v>290731</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>285568</v>
+        <v>285560</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>293731</v>
+        <v>293732</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9864051319703</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9688882868400498</v>
+        <v>0.9688605883884195</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9965825998183884</v>
+        <v>0.9965881265266916</v>
       </c>
     </row>
     <row r="6">
@@ -1512,19 +1512,19 @@
         <v>10259</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5094</v>
+        <v>5046</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20266</v>
+        <v>19234</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02029321872218941</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01007589095234718</v>
+        <v>0.00998117204034259</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04008825406560059</v>
+        <v>0.03804813454943442</v>
       </c>
     </row>
     <row r="8">
@@ -1541,19 +1541,19 @@
         <v>495268</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>485261</v>
+        <v>486293</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>500433</v>
+        <v>500481</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9797067812778106</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9599117459344004</v>
+        <v>0.9619518654505657</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9899241090476529</v>
+        <v>0.9900188279596576</v>
       </c>
     </row>
     <row r="9">
@@ -1603,19 +1603,19 @@
         <v>4090</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11365</v>
+        <v>9349</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01262187068295684</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003169858207711632</v>
+        <v>0.003172183997053093</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03507301922079639</v>
+        <v>0.02885162172793771</v>
       </c>
     </row>
     <row r="11">
@@ -1632,19 +1632,19 @@
         <v>319956</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>312681</v>
+        <v>314697</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>323019</v>
+        <v>323018</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9873781293170432</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9649269807792037</v>
+        <v>0.9711483782720622</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9968301417922883</v>
+        <v>0.9968278160029469</v>
       </c>
     </row>
     <row r="12">
@@ -1694,19 +1694,19 @@
         <v>4478</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1113</v>
+        <v>1123</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13931</v>
+        <v>13573</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01197352399387545</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002975770091517184</v>
+        <v>0.003002360765252684</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03725052064510167</v>
+        <v>0.03629442922595648</v>
       </c>
     </row>
     <row r="14">
@@ -1723,19 +1723,19 @@
         <v>369504</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>360051</v>
+        <v>360409</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>372869</v>
+        <v>372859</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9880264760061246</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9627494793548991</v>
+        <v>0.9637055707740441</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9970242299084828</v>
+        <v>0.9969976392347473</v>
       </c>
     </row>
     <row r="15">
@@ -1785,19 +1785,19 @@
         <v>3188</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8817</v>
+        <v>9693</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01499359548657145</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004573451603268765</v>
+        <v>0.00459595339755176</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04146657757078752</v>
+        <v>0.04558915542906417</v>
       </c>
     </row>
     <row r="17">
@@ -1814,19 +1814,19 @@
         <v>209430</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>203801</v>
+        <v>202925</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>211646</v>
+        <v>211641</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9850064045134286</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9585334224292124</v>
+        <v>0.9544108445709358</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9954265483967312</v>
+        <v>0.9954040466024482</v>
       </c>
     </row>
     <row r="18">
@@ -1876,19 +1876,19 @@
         <v>4209</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1053</v>
+        <v>1076</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10512</v>
+        <v>11526</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01536345085969404</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.003843058318029757</v>
+        <v>0.003927844243449311</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03836607491643006</v>
+        <v>0.04206849778412272</v>
       </c>
     </row>
     <row r="20">
@@ -1905,19 +1905,19 @@
         <v>269772</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>263469</v>
+        <v>262455</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>272928</v>
+        <v>272905</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.984636549140306</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9616339250835699</v>
+        <v>0.9579315022158773</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9961569416819703</v>
+        <v>0.9960721557565506</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>7174</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3309</v>
+        <v>3147</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14480</v>
+        <v>14233</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01085934690401696</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005009827494711145</v>
+        <v>0.004764166786646456</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02191947576576482</v>
+        <v>0.02154556334891954</v>
       </c>
     </row>
     <row r="23">
@@ -1996,19 +1996,19 @@
         <v>653423</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>646117</v>
+        <v>646364</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>657288</v>
+        <v>657450</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9891406530959831</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9780805242342352</v>
+        <v>0.9784544366510805</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9949901725052889</v>
+        <v>0.9952358332133535</v>
       </c>
     </row>
     <row r="24">
@@ -2058,19 +2058,19 @@
         <v>20110</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11986</v>
+        <v>11838</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>31460</v>
+        <v>30560</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02584649155252236</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01540583780005559</v>
+        <v>0.01521514787682713</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04043440545342599</v>
+        <v>0.03927822917098488</v>
       </c>
     </row>
     <row r="26">
@@ -2087,19 +2087,19 @@
         <v>757938</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>746588</v>
+        <v>747488</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>766062</v>
+        <v>766210</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9741535084474776</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9595655945465741</v>
+        <v>0.9607217708290152</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9845941621999443</v>
+        <v>0.9847848521231729</v>
       </c>
     </row>
     <row r="27">
@@ -2149,19 +2149,19 @@
         <v>57514</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>44541</v>
+        <v>43511</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>74340</v>
+        <v>77055</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01679967474789959</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01301033410330223</v>
+        <v>0.01270930758254853</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02171424533858039</v>
+        <v>0.02250756487543995</v>
       </c>
     </row>
     <row r="29">
@@ -2178,19 +2178,19 @@
         <v>3366023</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3349197</v>
+        <v>3346482</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3378996</v>
+        <v>3380026</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9832003252521004</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9782857546614196</v>
+        <v>0.9774924351245605</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9869896658966978</v>
+        <v>0.9872906924174516</v>
       </c>
     </row>
     <row r="30">
@@ -2362,19 +2362,19 @@
         <v>10128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4967</v>
+        <v>4941</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18325</v>
+        <v>18035</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03447547563586091</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01690864451511664</v>
+        <v>0.01681982791919861</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06237921916053537</v>
+        <v>0.06139287938823371</v>
       </c>
     </row>
     <row r="5">
@@ -2391,19 +2391,19 @@
         <v>283633</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>275436</v>
+        <v>275726</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>288794</v>
+        <v>288820</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.965524524364139</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9376207808394649</v>
+        <v>0.938607120611767</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9830913554848834</v>
+        <v>0.9831801720808014</v>
       </c>
     </row>
     <row r="6">
@@ -2453,19 +2453,19 @@
         <v>4609</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1741</v>
+        <v>1713</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11806</v>
+        <v>12757</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009169843516828287</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003464252012690437</v>
+        <v>0.003409283027878586</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02349066447285211</v>
+        <v>0.02538273878468052</v>
       </c>
     </row>
     <row r="8">
@@ -2482,19 +2482,19 @@
         <v>497966</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>490769</v>
+        <v>489818</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>500834</v>
+        <v>500862</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9908301564831717</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.976509335527148</v>
+        <v>0.9746172612153197</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9965357479873096</v>
+        <v>0.9965907169721213</v>
       </c>
     </row>
     <row r="9">
@@ -2544,19 +2544,19 @@
         <v>5537</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2283</v>
+        <v>2263</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11999</v>
+        <v>12704</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0173810218602975</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007167348775854693</v>
+        <v>0.007105127215360063</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03766537572698574</v>
+        <v>0.03987744120051674</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>313028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>306566</v>
+        <v>305861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>316282</v>
+        <v>316302</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9826189781397024</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9623346242730133</v>
+        <v>0.9601225587994817</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9928326512241452</v>
+        <v>0.9928948727846398</v>
       </c>
     </row>
     <row r="12">
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5422</v>
+        <v>4541</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002436678865430427</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01465439324857771</v>
+        <v>0.0122742370229847</v>
       </c>
     </row>
     <row r="14">
@@ -2664,7 +2664,7 @@
         <v>369063</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>364542</v>
+        <v>365423</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>369964</v>
@@ -2673,7 +2673,7 @@
         <v>0.9975633211345696</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9853456067514222</v>
+        <v>0.9877257629770153</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2726,19 +2726,19 @@
         <v>2530</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6739</v>
+        <v>6913</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01197764399660302</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003568206197382634</v>
+        <v>0.003587776748161283</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03190534279389021</v>
+        <v>0.03272985087303287</v>
       </c>
     </row>
     <row r="17">
@@ -2755,19 +2755,19 @@
         <v>208691</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>204482</v>
+        <v>204308</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>210467</v>
+        <v>210463</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9880223560033969</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9680946572061099</v>
+        <v>0.9672701491269674</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9964317938026174</v>
+        <v>0.9964122232518388</v>
       </c>
     </row>
     <row r="18">
@@ -2817,19 +2817,19 @@
         <v>4392</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1584</v>
+        <v>1755</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9990</v>
+        <v>9850</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01669024072454322</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006020614525241167</v>
+        <v>0.006671325201050813</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03796545795800228</v>
+        <v>0.03743671147837582</v>
       </c>
     </row>
     <row r="20">
@@ -2846,19 +2846,19 @@
         <v>258731</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>253133</v>
+        <v>253273</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>261539</v>
+        <v>261368</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9833097592754568</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9620345420419978</v>
+        <v>0.9625632885216242</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9939793854747588</v>
+        <v>0.9933286747989492</v>
       </c>
     </row>
     <row r="21">
@@ -2908,19 +2908,19 @@
         <v>6787</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2852</v>
+        <v>2748</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14628</v>
+        <v>12978</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0103372622579126</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004344060847953624</v>
+        <v>0.004184952405748441</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02227943551765113</v>
+        <v>0.01976725810141817</v>
       </c>
     </row>
     <row r="23">
@@ -2937,19 +2937,19 @@
         <v>649771</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>641930</v>
+        <v>643580</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>653706</v>
+        <v>653810</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9896627377420874</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9777205644823498</v>
+        <v>0.9802327418985818</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9956559391520464</v>
+        <v>0.9958150475942515</v>
       </c>
     </row>
     <row r="24">
@@ -2999,19 +2999,19 @@
         <v>2851</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7438</v>
+        <v>8146</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003661237028597531</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001110013440323227</v>
+        <v>0.001116760766569395</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.009553527280624884</v>
+        <v>0.01046213154764676</v>
       </c>
     </row>
     <row r="26">
@@ -3028,19 +3028,19 @@
         <v>775732</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>771145</v>
+        <v>770437</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>777719</v>
+        <v>777714</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9963387629714024</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9904464727193748</v>
+        <v>0.989537868452353</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9988899865596768</v>
+        <v>0.9988832392334306</v>
       </c>
     </row>
     <row r="27">
@@ -3090,19 +3090,19 @@
         <v>37734</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27008</v>
+        <v>27576</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>51063</v>
+        <v>50949</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01111660776788449</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00795663170362374</v>
+        <v>0.008124139005835728</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01504343890446197</v>
+        <v>0.01500994374347743</v>
       </c>
     </row>
     <row r="29">
@@ -3119,19 +3119,19 @@
         <v>3356616</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3343287</v>
+        <v>3343401</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3367342</v>
+        <v>3366774</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9888833922321155</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9849565610955381</v>
+        <v>0.9849900562565225</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9920433682963763</v>
+        <v>0.9918758609941642</v>
       </c>
     </row>
     <row r="30">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4151</v>
+        <v>4193</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002553775810352221</v>
@@ -3315,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01301938455258115</v>
+        <v>0.01314989415478535</v>
       </c>
     </row>
     <row r="5">
@@ -3332,16 +3332,16 @@
         <v>318031</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>314694</v>
+        <v>314652</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>318845</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9974462241896478</v>
+        <v>0.9974462241896479</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9869806154474188</v>
+        <v>0.9868501058452148</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -3394,19 +3394,19 @@
         <v>3511</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1037</v>
+        <v>1049</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9457</v>
+        <v>9501</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.006660436661246509</v>
+        <v>0.006660436661246508</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00196797735960627</v>
+        <v>0.001989470137605572</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01793987313661297</v>
+        <v>0.01802420553440431</v>
       </c>
     </row>
     <row r="8">
@@ -3423,19 +3423,19 @@
         <v>523614</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>517668</v>
+        <v>517624</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>526088</v>
+        <v>526076</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9933395633387537</v>
+        <v>0.9933395633387536</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.982060126863387</v>
+        <v>0.9819757944655949</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9980320226403937</v>
+        <v>0.9980105298623944</v>
       </c>
     </row>
     <row r="9">
@@ -3485,19 +3485,19 @@
         <v>6574</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3496</v>
+        <v>3596</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11025</v>
+        <v>11259</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02091091993767924</v>
+        <v>0.02091091993767925</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01112051005093584</v>
+        <v>0.01143922956747146</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03506892157765642</v>
+        <v>0.0358146868927988</v>
       </c>
     </row>
     <row r="11">
@@ -3514,19 +3514,19 @@
         <v>307798</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>303347</v>
+        <v>303113</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310876</v>
+        <v>310776</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9790890800623206</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9649310784223438</v>
+        <v>0.9641853131072013</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9888794899490644</v>
+        <v>0.9885607704325287</v>
       </c>
     </row>
     <row r="12">
@@ -3579,16 +3579,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5386</v>
+        <v>5677</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.004343066495389608</v>
+        <v>0.004343066495389609</v>
       </c>
       <c r="H13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01462430214685205</v>
+        <v>0.01541253347756395</v>
       </c>
     </row>
     <row r="14">
@@ -3605,16 +3605,16 @@
         <v>366724</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>362938</v>
+        <v>362647</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>368324</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9956569335046103</v>
+        <v>0.9956569335046104</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9853756978531509</v>
+        <v>0.9845874665224361</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3667,19 +3667,19 @@
         <v>3359</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7362</v>
+        <v>7164</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01643856849943939</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005834114358780421</v>
+        <v>0.005838153514673972</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03602554835818505</v>
+        <v>0.03505571209151385</v>
       </c>
     </row>
     <row r="17">
@@ -3696,19 +3696,19 @@
         <v>201004</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>197001</v>
+        <v>197199</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>203171</v>
+        <v>203170</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9835614315005607</v>
+        <v>0.9835614315005605</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9639744516418148</v>
+        <v>0.9649442879084859</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9941658856412195</v>
+        <v>0.9941618464853261</v>
       </c>
     </row>
     <row r="18">
@@ -3758,19 +3758,19 @@
         <v>8472</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5190</v>
+        <v>5265</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13233</v>
+        <v>12870</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03129721612879602</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0191716804529739</v>
+        <v>0.01944826254725422</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0488845069752838</v>
+        <v>0.04754107376217478</v>
       </c>
     </row>
     <row r="20">
@@ -3787,19 +3787,19 @@
         <v>262235</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>257474</v>
+        <v>257837</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265517</v>
+        <v>265442</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.968702783871204</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9511154930247161</v>
+        <v>0.9524589262378252</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9808283195470262</v>
+        <v>0.9805517374527458</v>
       </c>
     </row>
     <row r="21">
@@ -3849,19 +3849,19 @@
         <v>9223</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4318</v>
+        <v>4505</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15906</v>
+        <v>16469</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.01294406818392747</v>
+        <v>0.01294406818392748</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006059843570823009</v>
+        <v>0.006322533874657706</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02232274369705981</v>
+        <v>0.02311234752311203</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>703319</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>696636</v>
+        <v>696073</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>708224</v>
+        <v>708037</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9870559318160725</v>
+        <v>0.9870559318160727</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.97767725630294</v>
+        <v>0.9768876524768878</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.993940156429177</v>
+        <v>0.9936774661253422</v>
       </c>
     </row>
     <row r="24">
@@ -3940,19 +3940,19 @@
         <v>2370</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6517</v>
+        <v>6977</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002980909506012163</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0008621808290839227</v>
+        <v>0.0008543827395777675</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.008196385475204095</v>
+        <v>0.00877488938446094</v>
       </c>
     </row>
     <row r="26">
@@ -3969,19 +3969,19 @@
         <v>792743</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>788596</v>
+        <v>788136</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>794427</v>
+        <v>794434</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9970190904939878</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9918036145247959</v>
+        <v>0.9912251106155392</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9991378191709162</v>
+        <v>0.9991456172604222</v>
       </c>
     </row>
     <row r="27">
@@ -4031,19 +4031,19 @@
         <v>35924</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>26179</v>
+        <v>25931</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>47136</v>
+        <v>47006</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01023063545159232</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007455330612547365</v>
+        <v>0.007384729388097846</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01342369776924862</v>
+        <v>0.01338683341780855</v>
       </c>
     </row>
     <row r="29">
@@ -4060,19 +4060,19 @@
         <v>3475468</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3464256</v>
+        <v>3464386</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3485213</v>
+        <v>3485461</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9897693645484076</v>
+        <v>0.9897693645484077</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9865763022307515</v>
+        <v>0.9866131665821913</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9925446693874527</v>
+        <v>0.992615270611902</v>
       </c>
     </row>
     <row r="30">
